--- a/TestDocs/SignUP_Bug/Coinmena_SignUp Bug.xlsx
+++ b/TestDocs/SignUP_Bug/Coinmena_SignUp Bug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Selenium CSE\Selenium workspace\CoinMena-Selenium-Project\TestDocs\SignUP_Bug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED71DA12-881F-40C8-9B55-56249C90FEF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BDC59-F204-4B43-91EF-0DBA878A3378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{6FDBC293-FD7F-4E33-BFAB-2E89284341E7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Defect Id</t>
   </si>
@@ -78,7 +78,19 @@
     <t>High</t>
   </si>
   <si>
-    <t>User is automatically logged in post registering signUp</t>
+    <t>User is automatically logged in post registering for signUp</t>
+  </si>
+  <si>
+    <t>6. Expected :Sucessful signup User will land in login page</t>
+  </si>
+  <si>
+    <t>7.Actual : User is logged in automatically</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Rupam</t>
   </si>
 </sst>
 </file>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F3213F-D45D-40B2-A2B4-0186EB7D558B}">
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +507,7 @@
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -523,8 +535,11 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -546,25 +561,38 @@
       <c r="I3" s="1">
         <v>44707</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
